--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Itgav.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Itgav.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H2">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N2">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q2">
-        <v>941.3875438423315</v>
+        <v>1136.857862325542</v>
       </c>
       <c r="R2">
-        <v>941.3875438423315</v>
+        <v>10231.72076092988</v>
       </c>
       <c r="S2">
-        <v>0.001840925680674006</v>
+        <v>0.002011781528419193</v>
       </c>
       <c r="T2">
-        <v>0.001840925680674006</v>
+        <v>0.002011781528419192</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H3">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q3">
-        <v>4564.516546414962</v>
+        <v>5111.048361604362</v>
       </c>
       <c r="R3">
-        <v>4564.516546414962</v>
+        <v>45999.43525443926</v>
       </c>
       <c r="S3">
-        <v>0.008926117394606291</v>
+        <v>0.009044501538388858</v>
       </c>
       <c r="T3">
-        <v>0.008926117394606291</v>
+        <v>0.009044501538388856</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H4">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N4">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q4">
-        <v>5052.138484109263</v>
+        <v>5643.385981418165</v>
       </c>
       <c r="R4">
-        <v>5052.138484109263</v>
+        <v>50790.47383276349</v>
       </c>
       <c r="S4">
-        <v>0.009879684024453061</v>
+        <v>0.009986525186123795</v>
       </c>
       <c r="T4">
-        <v>0.009879684024453061</v>
+        <v>0.009986525186123791</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H5">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N5">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q5">
-        <v>4349.992164871102</v>
+        <v>5027.256116841669</v>
       </c>
       <c r="R5">
-        <v>4349.992164871102</v>
+        <v>45245.30505157501</v>
       </c>
       <c r="S5">
-        <v>0.008506605318312084</v>
+        <v>0.008896222940136004</v>
       </c>
       <c r="T5">
-        <v>0.008506605318312084</v>
+        <v>0.008896222940136003</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H6">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I6">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J6">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N6">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q6">
-        <v>733.1703770103929</v>
+        <v>900.0975339270066</v>
       </c>
       <c r="R6">
-        <v>733.1703770103929</v>
+        <v>8100.877805343059</v>
       </c>
       <c r="S6">
-        <v>0.001433747646414506</v>
+        <v>0.001592810897948026</v>
       </c>
       <c r="T6">
-        <v>0.001433747646414506</v>
+        <v>0.001592810897948025</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H7">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N7">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q7">
-        <v>23067.00464681498</v>
+        <v>25025.51942417391</v>
       </c>
       <c r="R7">
-        <v>23067.00464681498</v>
+        <v>225229.6748175652</v>
       </c>
       <c r="S7">
-        <v>0.0451085650201258</v>
+        <v>0.0442851119608408</v>
       </c>
       <c r="T7">
-        <v>0.0451085650201258</v>
+        <v>0.0442851119608408</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H8">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q8">
-        <v>111845.2491487951</v>
+        <v>112508.9109992853</v>
       </c>
       <c r="R8">
-        <v>111845.2491487951</v>
+        <v>1012580.198993568</v>
       </c>
       <c r="S8">
-        <v>0.2187184149250698</v>
+        <v>0.1990955566493739</v>
       </c>
       <c r="T8">
-        <v>0.2187184149250698</v>
+        <v>0.199095556649374</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H9">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N9">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q9">
-        <v>123793.5456567073</v>
+        <v>124227.1968873888</v>
       </c>
       <c r="R9">
-        <v>123793.5456567073</v>
+        <v>1118044.771986499</v>
       </c>
       <c r="S9">
-        <v>0.2420838461182056</v>
+        <v>0.2198322132496967</v>
       </c>
       <c r="T9">
-        <v>0.2420838461182056</v>
+        <v>0.2198322132496967</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H10">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J10">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N10">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q10">
-        <v>106588.7159194196</v>
+        <v>110664.4020959344</v>
       </c>
       <c r="R10">
-        <v>106588.7159194196</v>
+        <v>995979.6188634099</v>
       </c>
       <c r="S10">
-        <v>0.2084390277836416</v>
+        <v>0.1958315171737834</v>
       </c>
       <c r="T10">
-        <v>0.2084390277836416</v>
+        <v>0.1958315171737834</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H11">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J11">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N11">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q11">
-        <v>17965.01834343194</v>
+        <v>19813.7419508747</v>
       </c>
       <c r="R11">
-        <v>17965.01834343194</v>
+        <v>178323.6775578723</v>
       </c>
       <c r="S11">
-        <v>0.03513140134318855</v>
+        <v>0.0350623603764284</v>
       </c>
       <c r="T11">
-        <v>0.03513140134318855</v>
+        <v>0.03506236037642841</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H12">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I12">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J12">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N12">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q12">
-        <v>4085.627156037869</v>
+        <v>4614.130661693677</v>
       </c>
       <c r="R12">
-        <v>4085.627156037869</v>
+        <v>41527.1759552431</v>
       </c>
       <c r="S12">
-        <v>0.007989627653782649</v>
+        <v>0.008165156914092631</v>
       </c>
       <c r="T12">
-        <v>0.007989627653782649</v>
+        <v>0.008165156914092628</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H13">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I13">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J13">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q13">
-        <v>19810.02710116651</v>
+        <v>20744.05758204173</v>
       </c>
       <c r="R13">
-        <v>19810.02710116651</v>
+        <v>186696.5182383756</v>
       </c>
       <c r="S13">
-        <v>0.03873939894778705</v>
+        <v>0.03670864516224408</v>
       </c>
       <c r="T13">
-        <v>0.03873939894778705</v>
+        <v>0.03670864516224408</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H14">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I14">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J14">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N14">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q14">
-        <v>21926.30901243143</v>
+        <v>22904.64019782395</v>
       </c>
       <c r="R14">
-        <v>21926.30901243143</v>
+        <v>206141.7617804156</v>
       </c>
       <c r="S14">
-        <v>0.04287788340456246</v>
+        <v>0.04053200808306068</v>
       </c>
       <c r="T14">
-        <v>0.04287788340456246</v>
+        <v>0.04053200808306067</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H15">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I15">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J15">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N15">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q15">
-        <v>18878.9900966928</v>
+        <v>20403.97252956138</v>
       </c>
       <c r="R15">
-        <v>18878.9900966928</v>
+        <v>183635.7527660524</v>
       </c>
       <c r="S15">
-        <v>0.03691871421236154</v>
+        <v>0.03610683129496615</v>
       </c>
       <c r="T15">
-        <v>0.03691871421236154</v>
+        <v>0.03610683129496615</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H16">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I16">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J16">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N16">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q16">
-        <v>3181.963498359056</v>
+        <v>3653.198669279375</v>
       </c>
       <c r="R16">
-        <v>3181.963498359056</v>
+        <v>32878.78802351437</v>
       </c>
       <c r="S16">
-        <v>0.006222472729124589</v>
+        <v>0.006464693473173424</v>
       </c>
       <c r="T16">
-        <v>0.006222472729124589</v>
+        <v>0.006464693473173422</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H17">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N17">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q17">
-        <v>2261.989180161604</v>
+        <v>4780.023625627302</v>
       </c>
       <c r="R17">
-        <v>2261.989180161604</v>
+        <v>43020.21263064572</v>
       </c>
       <c r="S17">
-        <v>0.004423421574254091</v>
+        <v>0.008458720790102322</v>
       </c>
       <c r="T17">
-        <v>0.004423421574254091</v>
+        <v>0.00845872079010232</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H18">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I18">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J18">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q18">
-        <v>10967.73279845789</v>
+        <v>21489.87373867209</v>
       </c>
       <c r="R18">
-        <v>10967.73279845789</v>
+        <v>193408.8636480489</v>
       </c>
       <c r="S18">
-        <v>0.02144789475866846</v>
+        <v>0.03802844002598924</v>
       </c>
       <c r="T18">
-        <v>0.02144789475866846</v>
+        <v>0.03802844002598924</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H19">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I19">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J19">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N19">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q19">
-        <v>12139.402802261</v>
+        <v>23728.13630767524</v>
       </c>
       <c r="R19">
-        <v>12139.402802261</v>
+        <v>213553.2267690771</v>
       </c>
       <c r="S19">
-        <v>0.02373914814669694</v>
+        <v>0.04198926524547758</v>
       </c>
       <c r="T19">
-        <v>0.02373914814669694</v>
+        <v>0.04198926524547758</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H20">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I20">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J20">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N20">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q20">
-        <v>10452.26832996441</v>
+        <v>21137.56152543666</v>
       </c>
       <c r="R20">
-        <v>10452.26832996441</v>
+        <v>190238.0537289299</v>
       </c>
       <c r="S20">
-        <v>0.02043988080763241</v>
+        <v>0.03740498899810641</v>
       </c>
       <c r="T20">
-        <v>0.02043988080763241</v>
+        <v>0.03740498899810641</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H21">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I21">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J21">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N21">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O21">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P21">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q21">
-        <v>1761.679842547687</v>
+        <v>3784.543011154314</v>
       </c>
       <c r="R21">
-        <v>1761.679842547687</v>
+        <v>34060.88710038882</v>
       </c>
       <c r="S21">
-        <v>0.003445044163251593</v>
+        <v>0.006697120172766157</v>
       </c>
       <c r="T21">
-        <v>0.003445044163251593</v>
+        <v>0.006697120172766156</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H22">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I22">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J22">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N22">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O22">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P22">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q22">
-        <v>421.2850839889974</v>
+        <v>497.7483836914253</v>
       </c>
       <c r="R22">
-        <v>421.2850839889974</v>
+        <v>4479.735453222828</v>
       </c>
       <c r="S22">
-        <v>0.0008238419289411639</v>
+        <v>0.000880814600747491</v>
       </c>
       <c r="T22">
-        <v>0.0008238419289411639</v>
+        <v>0.0008808146007474908</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H23">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I23">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J23">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P23">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q23">
-        <v>2042.689803156843</v>
+        <v>2237.760889257757</v>
       </c>
       <c r="R23">
-        <v>2042.689803156843</v>
+        <v>20139.84800331982</v>
       </c>
       <c r="S23">
-        <v>0.003994571779581757</v>
+        <v>0.003959937447957356</v>
       </c>
       <c r="T23">
-        <v>0.003994571779581757</v>
+        <v>0.003959937447957356</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H24">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I24">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J24">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N24">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O24">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P24">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q24">
-        <v>2260.907953928155</v>
+        <v>2470.833288738236</v>
       </c>
       <c r="R24">
-        <v>2260.907953928155</v>
+        <v>22237.49959864412</v>
       </c>
       <c r="S24">
-        <v>0.004421307187726677</v>
+        <v>0.004372381926372634</v>
       </c>
       <c r="T24">
-        <v>0.004421307187726677</v>
+        <v>0.004372381926372634</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H25">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I25">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J25">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N25">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O25">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P25">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q25">
-        <v>1946.686916048821</v>
+        <v>2201.074285084399</v>
       </c>
       <c r="R25">
-        <v>1946.686916048821</v>
+        <v>19809.6685657596</v>
       </c>
       <c r="S25">
-        <v>0.003806833816134044</v>
+        <v>0.003895016902423711</v>
       </c>
       <c r="T25">
-        <v>0.003806833816134044</v>
+        <v>0.003895016902423711</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H26">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I26">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J26">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N26">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O26">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P26">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q26">
-        <v>328.1047703227313</v>
+        <v>394.0880452375436</v>
       </c>
       <c r="R26">
-        <v>328.1047703227313</v>
+        <v>3546.792407137892</v>
       </c>
       <c r="S26">
-        <v>0.0006416236348034006</v>
+        <v>0.0006973774613810883</v>
       </c>
       <c r="T26">
-        <v>0.0006416236348034006</v>
+        <v>0.0006973774613810882</v>
       </c>
     </row>
   </sheetData>
